--- a/1.xlsx
+++ b/1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>pdf</t>
   </si>
@@ -132,15 +132,6 @@
     <t>contact_verst.html</t>
   </si>
   <si>
-    <t>catalog.html</t>
-  </si>
-  <si>
-    <t>удалить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">review.html </t>
-  </si>
-  <si>
     <t>listoobr-verst.html</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
   </si>
   <si>
     <t>zapasn.html</t>
-  </si>
-  <si>
-    <t>new_page</t>
   </si>
   <si>
     <t>progect-belgim.html</t>
@@ -399,11 +387,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Ввод" xfId="5"/>
@@ -689,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +691,7 @@
     <col min="6" max="6" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -712,254 +700,242 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="F4" t="s">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="F5" t="s">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="8" t="s">
